--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Forsøgt, men ikke opnået</t>
+  </si>
+  <si>
+    <t>PRO_spg</t>
+  </si>
+  <si>
+    <t>PRO-spørgeskema sendt til patienten via Digital Post</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -552,6 +558,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ContactPatient.xlsx
+++ b/fhir/CodeSystem-ContactPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
